--- a/po_analysis_by_asin/B0BTK4H5VS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTK4H5VS_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,9 +452,97 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45551</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B13" t="n">
         <v>20</v>
       </c>
     </row>
@@ -469,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,9 +579,73 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45536</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45016.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45077.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45107.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45138.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B10" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0BTK4H5VS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTK4H5VS_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -573,7 +574,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -647,6 +648,327 @@
       </c>
       <c r="B10" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-109.4961925014655</v>
+      </c>
+      <c r="D2" t="n">
+        <v>192.5948956430826</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-103.6663804414446</v>
+      </c>
+      <c r="D3" t="n">
+        <v>199.6607635808974</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>49</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-109.1537271305042</v>
+      </c>
+      <c r="D4" t="n">
+        <v>192.5772926906727</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-94.11207480802713</v>
+      </c>
+      <c r="D5" t="n">
+        <v>207.8011009399883</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-90.17541006055507</v>
+      </c>
+      <c r="D6" t="n">
+        <v>214.67708631043</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>62</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-103.8235741746622</v>
+      </c>
+      <c r="D7" t="n">
+        <v>208.7936784547367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-96.83460922977427</v>
+      </c>
+      <c r="D8" t="n">
+        <v>210.0893750875715</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-73.37369674692638</v>
+      </c>
+      <c r="D9" t="n">
+        <v>214.203221174295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>70</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-80.35998655829863</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.229997959247</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>71</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-76.72081657738651</v>
+      </c>
+      <c r="D11" t="n">
+        <v>219.4176489319345</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-80.29833753445313</v>
+      </c>
+      <c r="D12" t="n">
+        <v>221.0422898039483</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>119</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-38.22937753294465</v>
+      </c>
+      <c r="D13" t="n">
+        <v>277.0993599454376</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>120</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-26.19323014548186</v>
+      </c>
+      <c r="D14" t="n">
+        <v>272.9999222107436</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>121</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-35.67267191236229</v>
+      </c>
+      <c r="D15" t="n">
+        <v>275.7934634630042</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>122</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-35.33961253536719</v>
+      </c>
+      <c r="D16" t="n">
+        <v>269.9457848205878</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>123</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-22.50548825145068</v>
+      </c>
+      <c r="D17" t="n">
+        <v>269.0882871658732</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>123</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-12.1148871033229</v>
+      </c>
+      <c r="D18" t="n">
+        <v>287.6350718554778</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>124</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-22.84122371434833</v>
+      </c>
+      <c r="D19" t="n">
+        <v>279.4213573762946</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>125</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-27.34256790557204</v>
+      </c>
+      <c r="D20" t="n">
+        <v>262.9041691528553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>126</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-37.40252222232969</v>
+      </c>
+      <c r="D21" t="n">
+        <v>265.6803998962648</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BTK4H5VS_po_data.xlsx
+++ b/po_analysis_by_asin/B0BTK4H5VS_po_data.xlsx
@@ -661,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,16 +680,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -698,12 +688,6 @@
       <c r="B2" t="n">
         <v>46</v>
       </c>
-      <c r="C2" t="n">
-        <v>-109.4961925014655</v>
-      </c>
-      <c r="D2" t="n">
-        <v>192.5948956430826</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -712,12 +696,6 @@
       <c r="B3" t="n">
         <v>48</v>
       </c>
-      <c r="C3" t="n">
-        <v>-103.6663804414446</v>
-      </c>
-      <c r="D3" t="n">
-        <v>199.6607635808974</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -726,12 +704,6 @@
       <c r="B4" t="n">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>-109.1537271305042</v>
-      </c>
-      <c r="D4" t="n">
-        <v>192.5772926906727</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -740,12 +712,6 @@
       <c r="B5" t="n">
         <v>58</v>
       </c>
-      <c r="C5" t="n">
-        <v>-94.11207480802713</v>
-      </c>
-      <c r="D5" t="n">
-        <v>207.8011009399883</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -754,12 +720,6 @@
       <c r="B6" t="n">
         <v>60</v>
       </c>
-      <c r="C6" t="n">
-        <v>-90.17541006055507</v>
-      </c>
-      <c r="D6" t="n">
-        <v>214.67708631043</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -768,12 +728,6 @@
       <c r="B7" t="n">
         <v>62</v>
       </c>
-      <c r="C7" t="n">
-        <v>-103.8235741746622</v>
-      </c>
-      <c r="D7" t="n">
-        <v>208.7936784547367</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -782,12 +736,6 @@
       <c r="B8" t="n">
         <v>65</v>
       </c>
-      <c r="C8" t="n">
-        <v>-96.83460922977427</v>
-      </c>
-      <c r="D8" t="n">
-        <v>210.0893750875715</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -796,12 +744,6 @@
       <c r="B9" t="n">
         <v>69</v>
       </c>
-      <c r="C9" t="n">
-        <v>-73.37369674692638</v>
-      </c>
-      <c r="D9" t="n">
-        <v>214.203221174295</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -810,12 +752,6 @@
       <c r="B10" t="n">
         <v>70</v>
       </c>
-      <c r="C10" t="n">
-        <v>-80.35998655829863</v>
-      </c>
-      <c r="D10" t="n">
-        <v>215.229997959247</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -824,12 +760,6 @@
       <c r="B11" t="n">
         <v>71</v>
       </c>
-      <c r="C11" t="n">
-        <v>-76.72081657738651</v>
-      </c>
-      <c r="D11" t="n">
-        <v>219.4176489319345</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -838,12 +768,6 @@
       <c r="B12" t="n">
         <v>74</v>
       </c>
-      <c r="C12" t="n">
-        <v>-80.29833753445313</v>
-      </c>
-      <c r="D12" t="n">
-        <v>221.0422898039483</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -852,12 +776,6 @@
       <c r="B13" t="n">
         <v>119</v>
       </c>
-      <c r="C13" t="n">
-        <v>-38.22937753294465</v>
-      </c>
-      <c r="D13" t="n">
-        <v>277.0993599454376</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -866,12 +784,6 @@
       <c r="B14" t="n">
         <v>120</v>
       </c>
-      <c r="C14" t="n">
-        <v>-26.19323014548186</v>
-      </c>
-      <c r="D14" t="n">
-        <v>272.9999222107436</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -880,12 +792,6 @@
       <c r="B15" t="n">
         <v>121</v>
       </c>
-      <c r="C15" t="n">
-        <v>-35.67267191236229</v>
-      </c>
-      <c r="D15" t="n">
-        <v>275.7934634630042</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -894,12 +800,6 @@
       <c r="B16" t="n">
         <v>122</v>
       </c>
-      <c r="C16" t="n">
-        <v>-35.33961253536719</v>
-      </c>
-      <c r="D16" t="n">
-        <v>269.9457848205878</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -908,12 +808,6 @@
       <c r="B17" t="n">
         <v>123</v>
       </c>
-      <c r="C17" t="n">
-        <v>-22.50548825145068</v>
-      </c>
-      <c r="D17" t="n">
-        <v>269.0882871658732</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -922,12 +816,6 @@
       <c r="B18" t="n">
         <v>123</v>
       </c>
-      <c r="C18" t="n">
-        <v>-12.1148871033229</v>
-      </c>
-      <c r="D18" t="n">
-        <v>287.6350718554778</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -936,12 +824,6 @@
       <c r="B19" t="n">
         <v>124</v>
       </c>
-      <c r="C19" t="n">
-        <v>-22.84122371434833</v>
-      </c>
-      <c r="D19" t="n">
-        <v>279.4213573762946</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -950,12 +832,6 @@
       <c r="B20" t="n">
         <v>125</v>
       </c>
-      <c r="C20" t="n">
-        <v>-27.34256790557204</v>
-      </c>
-      <c r="D20" t="n">
-        <v>262.9041691528553</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -963,12 +839,6 @@
       </c>
       <c r="B21" t="n">
         <v>126</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-37.40252222232969</v>
-      </c>
-      <c r="D21" t="n">
-        <v>265.6803998962648</v>
       </c>
     </row>
   </sheetData>
